--- a/r5-pica-main/all-profiles.xlsx
+++ b/r5-pica-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T12:08:19+00:00</t>
+    <t>2023-09-06T14:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
